--- a/Results/Sensitivity Analysis.xlsx
+++ b/Results/Sensitivity Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/dco_us_es/Documents/01 INVEST/00 EN CURSO/22 DRONES VIGILANCIA RAILWAY/LATEX/LATEX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dknk\Documents\GitHub\DroneMonitoring\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="401" documentId="8_{726BF241-A196-4451-9B01-707F5433C58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AAB1244-E054-4DE7-963E-15A6EC8C35CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEAD517-E658-4225-BF8D-46A9069378B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="1800" windowWidth="19200" windowHeight="11260" xr2:uid="{F6A529F1-5BC1-4381-AE20-14ADE3A46C9C}"/>
+    <workbookView xWindow="1875" yWindow="2265" windowWidth="21795" windowHeight="13020" xr2:uid="{F6A529F1-5BC1-4381-AE20-14ADE3A46C9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,81 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>rc</t>
-  </si>
-  <si>
-    <t># (8,1.8,12000-&gt;18,43)</t>
-  </si>
-  <si>
-    <t># (8,1.9,12000-&gt;18,43)</t>
-  </si>
-  <si>
-    <t># (8,2.0,12000-&gt;18,44)</t>
-  </si>
-  <si>
-    <t># (8,1.8,10000-&gt;18,44)</t>
-  </si>
-  <si>
-    <t># (8,1.9,10000-&gt;18,42)</t>
-  </si>
-  <si>
-    <t># (8,2.0,10000-&gt;17,43)</t>
-  </si>
-  <si>
-    <t># (8,1.8,8000-&gt;19,55)</t>
-  </si>
-  <si>
-    <t># (8,1.9,8000-&gt;19,55)</t>
-  </si>
-  <si>
-    <t># (8,2.0,8000-&gt;19,55)</t>
-  </si>
-  <si>
-    <t># (8,1.8,6000-&gt;19,72)</t>
-  </si>
-  <si>
-    <t># (8,1.9,6000-&gt;19,72)</t>
-  </si>
-  <si>
-    <t># (8,2.0,6000-&gt;19,72)</t>
-  </si>
-  <si>
-    <t># (9,1.8,12000-&gt;17,41)</t>
-  </si>
-  <si>
-    <t># (9,1.9,12000-&gt;16,41)</t>
-  </si>
-  <si>
-    <t># (9,2.0,12000-&gt;17,41)</t>
-  </si>
-  <si>
-    <t># (9,1.8,10000-&gt;16,48)</t>
-  </si>
-  <si>
-    <t># (9,1.9,10000-&gt;17,48)</t>
-  </si>
-  <si>
-    <t># (9,2.0,10000-&gt;16,48)</t>
-  </si>
-  <si>
-    <t># (9,1.8,8000-&gt;16,53)</t>
-  </si>
-  <si>
-    <t># (9,1.9,8000-&gt;16,56)</t>
-  </si>
-  <si>
-    <t># (9,2.0,8000-&gt;16,55)</t>
-  </si>
-  <si>
-    <t># (9,1.8,6000-&gt;17,73)</t>
-  </si>
-  <si>
-    <t># (9,1.9,6000-&gt;17,69)</t>
-  </si>
-  <si>
-    <t># (9,2.0,6000-&gt;17,73)</t>
   </si>
   <si>
     <t>$\mathcal{E}$</t>
@@ -158,18 +86,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2B2B2B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -347,15 +269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,16 +278,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -389,16 +299,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -406,6 +319,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,53 +661,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDE7481-B155-45C4-870A-8A7AA10EF1D4}">
-  <dimension ref="B1:L80"/>
+  <dimension ref="B1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:M82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="2:9" ht="15" thickBot="1">
-      <c r="D2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-    </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1">
-      <c r="D3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1">
-      <c r="D4" s="25" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="25" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="2:9" ht="15" thickBot="1">
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1">
       <c r="D5" s="1">
         <v>1.8</v>
       </c>
@@ -808,10 +728,10 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
         <v>12000</v>
       </c>
       <c r="D6" s="7">
@@ -834,8 +754,8 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="21"/>
-      <c r="C7" s="14">
+      <c r="B7" s="17"/>
+      <c r="C7" s="11">
         <v>10000</v>
       </c>
       <c r="D7" s="7">
@@ -858,8 +778,8 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="21"/>
-      <c r="C8" s="14">
+      <c r="B8" s="17"/>
+      <c r="C8" s="11">
         <v>8000</v>
       </c>
       <c r="D8" s="7">
@@ -881,9 +801,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" thickBot="1">
-      <c r="B9" s="22"/>
-      <c r="C9" s="15">
+    <row r="9" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B9" s="18"/>
+      <c r="C9" s="12">
         <v>6000</v>
       </c>
       <c r="D9" s="8">
@@ -905,29 +825,29 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" thickBot="1">
-      <c r="D10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="2:9" ht="15" thickBot="1">
-      <c r="D11" s="23" t="s">
+    <row r="10" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" thickBot="1">
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1">
       <c r="D12" s="1">
         <v>1.8</v>
       </c>
@@ -948,10 +868,10 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
         <v>12000</v>
       </c>
       <c r="D13" s="7">
@@ -974,8 +894,8 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="21"/>
-      <c r="C14" s="14">
+      <c r="B14" s="17"/>
+      <c r="C14" s="11">
         <v>10000</v>
       </c>
       <c r="D14" s="7">
@@ -998,8 +918,8 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="21"/>
-      <c r="C15" s="14">
+      <c r="B15" s="17"/>
+      <c r="C15" s="11">
         <v>8000</v>
       </c>
       <c r="D15" s="7">
@@ -1021,9 +941,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" thickBot="1">
-      <c r="B16" s="22"/>
-      <c r="C16" s="15">
+    <row r="16" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B16" s="18"/>
+      <c r="C16" s="12">
         <v>6000</v>
       </c>
       <c r="D16" s="8">
@@ -1045,27 +965,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1">
-      <c r="D17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="2:9" ht="15" thickBot="1">
-      <c r="D18" s="25" t="s">
+    <row r="17" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="25" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="D19" s="1">
@@ -1088,10 +1008,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
         <v>12000</v>
       </c>
       <c r="D20" s="7">
@@ -1114,8 +1034,8 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1">
-      <c r="B21" s="21"/>
-      <c r="C21" s="14">
+      <c r="B21" s="17"/>
+      <c r="C21" s="11">
         <v>10000</v>
       </c>
       <c r="D21" s="7">
@@ -1138,8 +1058,8 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="21"/>
-      <c r="C22" s="14">
+      <c r="B22" s="17"/>
+      <c r="C22" s="11">
         <v>8000</v>
       </c>
       <c r="D22" s="7">
@@ -1161,9 +1081,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" thickBot="1">
-      <c r="B23" s="22"/>
-      <c r="C23" s="15">
+    <row r="23" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B23" s="18"/>
+      <c r="C23" s="12">
         <v>6000</v>
       </c>
       <c r="D23" s="8">
@@ -1191,678 +1111,580 @@
     <row r="32" spans="2:9">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:13">
       <c r="B33" s="5"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="37" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="38" spans="2:12" ht="18" customHeight="1"/>
-    <row r="45" spans="2:12">
-      <c r="B45" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>8</v>
-      </c>
-      <c r="I45">
-        <v>8</v>
-      </c>
-      <c r="J45">
-        <v>12000</v>
-      </c>
-      <c r="K45">
-        <v>1.8</v>
-      </c>
-      <c r="L45">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="B46" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46">
-        <v>8</v>
-      </c>
-      <c r="I46">
-        <v>8</v>
-      </c>
-      <c r="J46">
-        <v>12000</v>
-      </c>
-      <c r="K46">
-        <v>1.9</v>
-      </c>
-      <c r="L46">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="B47" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47">
-        <v>8</v>
-      </c>
-      <c r="I47">
-        <v>8</v>
-      </c>
-      <c r="J47">
-        <v>12000</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="B48" s="11"/>
-      <c r="F48">
-        <v>8</v>
-      </c>
-      <c r="I48">
-        <v>8</v>
-      </c>
-      <c r="J48">
-        <v>10000</v>
-      </c>
-      <c r="K48">
-        <v>1.8</v>
-      </c>
-      <c r="L48">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="B49" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49">
-        <v>8</v>
-      </c>
-      <c r="I49">
-        <v>8</v>
-      </c>
-      <c r="J49">
-        <v>10000</v>
-      </c>
-      <c r="K49">
-        <v>1.9</v>
-      </c>
-      <c r="L49">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12">
-      <c r="B50" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50">
-        <v>8</v>
-      </c>
-      <c r="I50">
-        <v>8</v>
-      </c>
-      <c r="J50">
-        <v>10000</v>
-      </c>
-      <c r="K50">
-        <v>2</v>
-      </c>
-      <c r="L50">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51">
-        <v>8</v>
-      </c>
-      <c r="I51">
-        <v>8</v>
-      </c>
-      <c r="J51">
-        <v>8000</v>
-      </c>
-      <c r="K51">
-        <v>1.8</v>
-      </c>
-      <c r="L51">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52" s="11"/>
-      <c r="F52">
-        <v>8</v>
-      </c>
-      <c r="I52">
-        <v>8</v>
-      </c>
-      <c r="J52">
-        <v>8000</v>
-      </c>
-      <c r="K52">
-        <v>1.9</v>
-      </c>
-      <c r="L52">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53">
-        <v>8</v>
-      </c>
-      <c r="I53">
-        <v>8</v>
-      </c>
-      <c r="J53">
-        <v>8000</v>
-      </c>
-      <c r="K53">
-        <v>2</v>
-      </c>
-      <c r="L53">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54">
-        <v>8</v>
-      </c>
-      <c r="I54">
-        <v>8</v>
-      </c>
-      <c r="J54">
-        <v>6000</v>
-      </c>
-      <c r="K54">
-        <v>1.8</v>
-      </c>
-      <c r="L54">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="B55" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55">
-        <v>8</v>
-      </c>
-      <c r="I55">
-        <v>8</v>
-      </c>
-      <c r="J55">
-        <v>6000</v>
-      </c>
-      <c r="K55">
-        <v>1.9</v>
-      </c>
-      <c r="L55">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56" s="11"/>
-      <c r="F56">
-        <v>8</v>
-      </c>
-      <c r="I56">
-        <v>8</v>
-      </c>
-      <c r="J56">
-        <v>6000</v>
-      </c>
-      <c r="K56">
-        <v>2</v>
-      </c>
-      <c r="L56">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57">
-        <v>9</v>
-      </c>
-      <c r="I57">
-        <v>9</v>
-      </c>
-      <c r="J57">
-        <v>12000</v>
-      </c>
-      <c r="K57">
-        <v>1.8</v>
-      </c>
-      <c r="L57">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58">
-        <v>9</v>
-      </c>
-      <c r="I58">
-        <v>9</v>
-      </c>
-      <c r="J58">
-        <v>12000</v>
-      </c>
-      <c r="K58">
-        <v>1.9</v>
-      </c>
-      <c r="L58">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59">
-        <v>9</v>
-      </c>
-      <c r="I59">
-        <v>9</v>
-      </c>
-      <c r="J59">
-        <v>12000</v>
-      </c>
-      <c r="K59">
-        <v>2</v>
-      </c>
-      <c r="L59">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="B60" s="11"/>
-      <c r="F60">
-        <v>9</v>
-      </c>
-      <c r="I60">
-        <v>9</v>
-      </c>
-      <c r="J60">
-        <v>10000</v>
-      </c>
-      <c r="K60">
-        <v>1.8</v>
-      </c>
-      <c r="L60">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="B61" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61">
-        <v>9</v>
-      </c>
-      <c r="I61">
-        <v>9</v>
-      </c>
-      <c r="J61">
-        <v>10000</v>
-      </c>
-      <c r="K61">
-        <v>1.9</v>
-      </c>
-      <c r="L61">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12">
-      <c r="B62" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62">
-        <v>9</v>
-      </c>
-      <c r="I62">
-        <v>9</v>
-      </c>
-      <c r="J62">
-        <v>10000</v>
-      </c>
-      <c r="K62">
-        <v>2</v>
-      </c>
-      <c r="L62">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12">
-      <c r="B63" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63">
-        <v>9</v>
-      </c>
-      <c r="I63">
-        <v>9</v>
-      </c>
-      <c r="J63">
-        <v>8000</v>
-      </c>
-      <c r="K63">
-        <v>1.8</v>
-      </c>
-      <c r="L63">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12">
-      <c r="B64" s="11"/>
-      <c r="F64">
-        <v>9</v>
-      </c>
-      <c r="I64">
-        <v>9</v>
-      </c>
-      <c r="J64">
-        <v>8000</v>
-      </c>
-      <c r="K64">
-        <v>1.9</v>
-      </c>
-      <c r="L64">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12">
-      <c r="B65" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65">
-        <v>9</v>
-      </c>
-      <c r="I65">
-        <v>9</v>
-      </c>
-      <c r="J65">
-        <v>8000</v>
-      </c>
-      <c r="K65">
-        <v>2</v>
-      </c>
-      <c r="L65">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12">
-      <c r="B66" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66">
-        <v>9</v>
-      </c>
-      <c r="I66">
-        <v>9</v>
-      </c>
-      <c r="J66">
-        <v>6000</v>
-      </c>
-      <c r="K66">
-        <v>1.8</v>
-      </c>
-      <c r="L66">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12">
-      <c r="B67" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67">
-        <v>9</v>
-      </c>
-      <c r="I67">
-        <v>9</v>
-      </c>
-      <c r="J67">
-        <v>6000</v>
-      </c>
-      <c r="K67">
-        <v>1.9</v>
-      </c>
-      <c r="L67">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12">
-      <c r="B68" s="11"/>
-      <c r="F68">
-        <v>9</v>
-      </c>
-      <c r="I68">
-        <v>9</v>
-      </c>
-      <c r="J68">
-        <v>6000</v>
-      </c>
-      <c r="K68">
-        <v>2</v>
-      </c>
-      <c r="L68">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12">
-      <c r="B69" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69">
-        <v>10</v>
-      </c>
-      <c r="I69">
-        <v>10</v>
-      </c>
-      <c r="J69">
-        <v>12000</v>
-      </c>
-      <c r="K69">
-        <v>1.8</v>
-      </c>
-      <c r="L69">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12">
-      <c r="B70" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70">
-        <v>10</v>
-      </c>
-      <c r="I70">
-        <v>10</v>
-      </c>
-      <c r="J70">
-        <v>12000</v>
-      </c>
-      <c r="K70">
-        <v>1.9</v>
-      </c>
-      <c r="L70">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12">
-      <c r="B71" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71">
-        <v>10</v>
-      </c>
-      <c r="I71">
-        <v>10</v>
-      </c>
-      <c r="J71">
-        <v>12000</v>
-      </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
-      <c r="L71">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12">
-      <c r="B72" s="11"/>
-      <c r="F72">
-        <v>10</v>
-      </c>
-      <c r="I72">
-        <v>10</v>
-      </c>
-      <c r="J72">
-        <v>10000</v>
-      </c>
-      <c r="K72">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12">
-      <c r="B73" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73">
-        <v>10</v>
-      </c>
-      <c r="I73">
-        <v>10</v>
-      </c>
-      <c r="J73">
-        <v>10000</v>
-      </c>
-      <c r="K73">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12">
-      <c r="B74" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74">
-        <v>10</v>
-      </c>
-      <c r="I74">
-        <v>10</v>
-      </c>
-      <c r="J74">
-        <v>10000</v>
-      </c>
-      <c r="K74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12">
-      <c r="B75" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75">
-        <v>10</v>
-      </c>
-      <c r="I75">
-        <v>10</v>
-      </c>
-      <c r="J75">
-        <v>8000</v>
-      </c>
-      <c r="K75">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12">
-      <c r="F76">
-        <v>10</v>
-      </c>
-      <c r="I76">
-        <v>10</v>
-      </c>
-      <c r="J76">
-        <v>8000</v>
-      </c>
-      <c r="K76">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12">
-      <c r="F77">
-        <v>10</v>
-      </c>
-      <c r="I77">
-        <v>10</v>
-      </c>
-      <c r="J77">
-        <v>8000</v>
-      </c>
-      <c r="K77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12">
-      <c r="F78">
-        <v>10</v>
-      </c>
-      <c r="I78">
-        <v>10</v>
-      </c>
-      <c r="J78">
-        <v>6000</v>
-      </c>
-      <c r="K78">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12">
-      <c r="F79">
-        <v>10</v>
-      </c>
-      <c r="I79">
-        <v>10</v>
-      </c>
-      <c r="J79">
-        <v>6000</v>
-      </c>
-      <c r="K79">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12">
-      <c r="F80">
-        <v>10</v>
-      </c>
-      <c r="I80">
-        <v>10</v>
-      </c>
-      <c r="J80">
-        <v>6000</v>
-      </c>
-      <c r="K80">
-        <v>2</v>
-      </c>
+    <row r="36" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="37" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="38" spans="2:13" ht="18" customHeight="1"/>
+    <row r="43" spans="2:13">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="28"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="28"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="28"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="29"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="28"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="28"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="28"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="29"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="28"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="28"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="28"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="29"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="28"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="28"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="28"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="29"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="28"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="28"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="28"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="29"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" s="28"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="B66" s="28"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="B67" s="28"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68" s="29"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" s="28"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70" s="28"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="B71" s="28"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="29"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="28"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74" s="28"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75" s="28"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+    </row>
+    <row r="76" spans="2:13">
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+    </row>
+    <row r="79" spans="2:13">
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="27"/>
+    </row>
+    <row r="80" spans="2:13">
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B13:B16"/>
@@ -1872,12 +1694,6 @@
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
